--- a/MMS/Defect Report/Monitor app/V18apr2015.xlsx
+++ b/MMS/Defect Report/Monitor app/V18apr2015.xlsx
@@ -31,10 +31,6 @@
     <t>uploading message end task and return to app, crashes</t>
   </si>
   <si>
-    <t>If the image is not in the cache manual retrieving is not possible
-If the images are retrievedusing auto option and present in the cache only then manual option will work</t>
-  </si>
-  <si>
     <t>Mon_V1.4: With gps and wifi enabled, the app is not retrieving the medias until the user manually updates the location in google maps
 1. With gps, mobile data and gps enabled
 2. Start the app
@@ -45,6 +41,41 @@
 Note: Currently, the prerequisite for the app to retrieve the medias is:
 1. go to Google maps and locate the current location which will update the location on the device
 2. after that user has to logout and login the app for the medias/malls to be retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repro rate:  noticed consistently, on launching the app just after installation. Later the defect is not consistent, it happens 4/10 times.
+Mon_V1.4: Image Preview:  Dashboard screen appears on pressing home button of the phone in image preview screen and returning back to the app
+1. Select capture&gt; choose indoor media/street media&gt; click and save the imgae.
+2.  On the image preview screen, press the home button of the phone.
+3. Return back to the app.
+Actual Result: The app returns back to the dashboard screen and the image clicked is in the captured folder.On clicking the upload button the image fails to load.
+Expected Result: The app must return back to the image preview screen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon_V1.4: The monitors get expired on enabling and disabling flight mode on link monitor/dashboard screen.
+1. Select capture&gt;choose category&gt; click a image and save.
+2. Select 'identify media to link' or 'upload without linking' option
+3. Diasble wifi/mobile data and select upload on the link monitor screen.
+4. The monitor sits in the captured folder.
+5. Enable flight mode and disable after few seconds.
+Actual Result: The monitor in the captured folder gets expired on returning back from flight mode
+Expected Result: The monitor must not get expired and must remain in the captured folder and on selecting upload it should get uploaded.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the image is not in the cache manual retrieving is not possible
+If the images are retrievedusing auto option and present in the cache only then manual option will work
+Prerequisite: 1.Do not retrieve the medias with  the auto option before hand. 
+2. The location is updated in the google maps.
+Mon_V1.4: Unable to retrieve medias manually if the images are not present in the cache.
+1. Select capture&gt;Choose indoor/street media&gt; click and save the image.
+2. Select manual option to identify media to link.
+3. Input a valid media ID
+Actual Result: The medias are not retrieved, the message 'unable to connect to server. Please try again' is displayed.
+Expected Result: On entering a valid media Id at a correct location and with the location updated, the media must get retrieved.
+Note:The manual option will work only when medias are retrieved using the auto option and are present in the cache.
+ </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -58,28 +89,8 @@
 7. The mall media types menu appears from the cache memory.
 8. Repeat step 3 and 4
 Actual Result: The user is able to link the media to the monitor even though the medias are not present at the location.
-Expected: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repro rate:  noticed consistently, on launching the app just after installation. Later the defect is not consistent, it happens 4/10 times.
-Mon_V1.4: Image Preview:  Dashboard screen appears on pressing home button of the phone in image preview screen and returning back to the app
-1. Select capture&gt; choose indoor media/street media&gt; click and save the imgae.
-2.  On the image preview screen, press the home button of the phone.
-3. Return back to the app.
-Actual Result: The app returns back to the dashboard screen and the image clicked is in the captured folder.On clicking the upload button the image fails to load.
-Expected Result: The app must return back to the image preview screen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mon_V1.4: The monitors get expired on enabling and disabling flight mode on link monitor/dashboard screen.
-1. Select capture&gt;choose category&gt; click a image and save.
-2. Select 'identify media to link' or 'upload without linking' option
-3. Diasble wifi/mobile data and select upload on the link monitor screen.
-4. The monitor sits in the captured folder.
-5. Enable flight mode and disable after few seconds.
-Actual Result: The monitor in the captured folder gets expired on returning back from flight mode
-Expected Result: The monitor must not get expired and must remain in the captured folder and on selecting upload it should get uploaded.
-</t>
+Expected: If the mall is not present at the location the medias must not be retrieved.
+Note: In the above scenario if the gps is ON, the monitor displays the updated location (new location) in the map.</t>
   </si>
 </sst>
 </file>
@@ -95,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -423,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -435,23 +455,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -460,13 +480,13 @@
       </c>
     </row>
     <row r="6" spans="2:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="375" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Defect Report/Monitor app/V18apr2015.xlsx
+++ b/MMS/Defect Report/Monitor app/V18apr2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,51 +418,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="405" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" ht="405">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="300">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="300">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="300">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="255">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="60">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,24 +473,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
